--- a/links.xlsx
+++ b/links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Crypto\Private\LQDU\LinkBoard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB3A1D5-8298-41BE-A234-51EBA123B02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A700F2F8-71B9-42DA-895D-C6CBBF0A579D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-45" windowWidth="20730" windowHeight="11280" tabRatio="394" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="669">
   <si>
     <t>https://xhamster18.desi/videos/nubile-films-seductive-games-of-passion-3267609</t>
   </si>
@@ -1978,6 +1978,93 @@
   </si>
   <si>
     <t>sensual stripping at 3m,bite gag at 4m,whipping at 19m,under a metal net at 58m</t>
+  </si>
+  <si>
+    <t>https://punishworld.com/76277-whipping-6728465-3276-44362/</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>mental torture</t>
+  </si>
+  <si>
+    <t>legs up joined</t>
+  </si>
+  <si>
+    <t>chinese</t>
+  </si>
+  <si>
+    <t>wheel of pain game at 4m,back whip at 5m,pussy whipping at 10m,ass whipping at 19m</t>
+  </si>
+  <si>
+    <t>https://heavyfetish.com/videos/1862/lesbian-teens-licking-each-others-pussies/</t>
+  </si>
+  <si>
+    <t>dildo</t>
+  </si>
+  <si>
+    <t>cunnilingus</t>
+  </si>
+  <si>
+    <t>sensual stripping at 1m, 69 at 11m</t>
+  </si>
+  <si>
+    <t>https://heavyfetish.com/videos/3757/mad-av-tki-039-japanese-bondage/</t>
+  </si>
+  <si>
+    <t>thzbt</t>
+  </si>
+  <si>
+    <t>jav</t>
+  </si>
+  <si>
+    <t>japanese</t>
+  </si>
+  <si>
+    <t>sensual stripping to hardcore bdsm,tied together at 60m</t>
+  </si>
+  <si>
+    <t>http://punishbang.com/videos/17930/sweet-lady-with-huge-jugs-gets/</t>
+  </si>
+  <si>
+    <t>crowned jewels</t>
+  </si>
+  <si>
+    <t>jewell marceau</t>
+  </si>
+  <si>
+    <t>nyssa nevers</t>
+  </si>
+  <si>
+    <t>towel on face</t>
+  </si>
+  <si>
+    <t>shibari</t>
+  </si>
+  <si>
+    <t>multiple girls</t>
+  </si>
+  <si>
+    <t>stripping at 4m,tying at 7m,enema at 10m,enema plug at 29m</t>
+  </si>
+  <si>
+    <t>http://punishbang.com/videos/10254/shaved-pussy-blond-haired-has-to/</t>
+  </si>
+  <si>
+    <t>tape</t>
+  </si>
+  <si>
+    <t>tit torture</t>
+  </si>
+  <si>
+    <t>sitting</t>
+  </si>
+  <si>
+    <t>upside down</t>
+  </si>
+  <si>
+    <t>sitting on pusst at 140m</t>
   </si>
 </sst>
 </file>
@@ -2070,7 +2157,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -2081,14 +2168,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFF6161"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2368,11 +2448,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BC93B7-B882-48B2-AAF6-D1E0B3702CB8}">
-  <dimension ref="A1:T105"/>
+  <dimension ref="A1:T110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4020,18 +4100,18 @@
         <v>www.pornhits.com</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>264</v>
+        <v>640</v>
       </c>
       <c r="B27" s="2">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>44</v>
@@ -4043,58 +4123,58 @@
         <v>81</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>72</v>
+        <v>641</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>68</v>
+        <v>635</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>119</v>
+        <v>642</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>44</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>69</v>
+        <v>386</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>279</v>
+        <v>643</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>192</v>
+        <v>93</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>57</v>
+        <v>644</v>
       </c>
       <c r="R27" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>280</v>
+        <v>645</v>
       </c>
       <c r="T27" s="2" t="str" cm="1">
         <f t="array" ref="T27">_xlfn.REGEXEXTRACT(A27,"(?&lt;=//)[^/]+")</f>
-        <v>txxx.com</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>punishworld.com</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B28" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>44</v>
@@ -4106,31 +4186,31 @@
         <v>81</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>219</v>
+        <v>72</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>284</v>
+        <v>68</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>285</v>
+        <v>84</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>44</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>218</v>
+        <v>69</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>44</v>
+        <v>279</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>44</v>
+        <v>192</v>
       </c>
       <c r="Q28" s="2" t="s">
         <v>57</v>
@@ -4139,28 +4219,28 @@
         <v>5</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>518</v>
+        <v>280</v>
       </c>
       <c r="T28" s="2" t="str" cm="1">
         <f t="array" ref="T28">_xlfn.REGEXEXTRACT(A28,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+        <v>txxx.com</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>29</v>
+        <v>274</v>
       </c>
       <c r="B29" s="2">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>113</v>
+        <v>282</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>396</v>
+        <v>283</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>405</v>
+        <v>44</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>44</v>
@@ -4169,31 +4249,31 @@
         <v>81</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>596</v>
+        <v>219</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>71</v>
+        <v>284</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>426</v>
+        <v>68</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>311</v>
+        <v>119</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>66</v>
+        <v>285</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="P29" s="2">
-        <v>69</v>
+        <v>44</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="Q29" s="2" t="s">
         <v>57</v>
@@ -4202,28 +4282,28 @@
         <v>5</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>207</v>
+        <v>518</v>
       </c>
       <c r="T29" s="2" t="str" cm="1">
         <f t="array" ref="T29">_xlfn.REGEXEXTRACT(A29,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>spankbang.com</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>113</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>134</v>
+        <v>396</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>44</v>
+        <v>405</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>44</v>
@@ -4232,31 +4312,31 @@
         <v>81</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>141</v>
+        <v>596</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>146</v>
+        <v>426</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>142</v>
+        <v>311</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
+      </c>
+      <c r="P30" s="2">
+        <v>69</v>
       </c>
       <c r="Q30" s="2" t="s">
         <v>57</v>
@@ -4265,7 +4345,7 @@
         <v>5</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="T30" s="2" t="str" cm="1">
         <f t="array" ref="T30">_xlfn.REGEXEXTRACT(A30,"(?&lt;=//)[^/]+")</f>
@@ -4274,52 +4354,52 @@
     </row>
     <row r="31" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B31" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>353</v>
+        <v>113</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>323</v>
+        <v>134</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>352</v>
+        <v>44</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>285</v>
+        <v>146</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>355</v>
+        <v>142</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>320</v>
+        <v>143</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>290</v>
+        <v>44</v>
       </c>
       <c r="Q31" s="2" t="s">
         <v>57</v>
@@ -4328,61 +4408,61 @@
         <v>5</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>354</v>
+        <v>209</v>
       </c>
       <c r="T31" s="2" t="str" cm="1">
         <f t="array" ref="T31">_xlfn.REGEXEXTRACT(A31,"(?&lt;=//)[^/]+")</f>
-        <v>tube.perverzija.com</v>
+        <v>bdsmstreak.com</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>323</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>330</v>
+        <v>82</v>
       </c>
       <c r="H32" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="I32" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="J32" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="K32" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="K32" s="2" t="s">
-        <v>285</v>
-      </c>
       <c r="L32" s="2" t="s">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>44</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="O32" s="2">
-        <v>69</v>
+        <v>320</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="Q32" s="2" t="s">
         <v>57</v>
@@ -4391,61 +4471,61 @@
         <v>5</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="T32" s="2" t="str" cm="1">
         <f t="array" ref="T32">_xlfn.REGEXEXTRACT(A32,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>tube.perverzija.com</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>260</v>
+        <v>8</v>
       </c>
       <c r="B33" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>114</v>
+        <v>373</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>385</v>
+        <v>323</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>81</v>
+        <v>330</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>596</v>
+        <v>161</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>100</v>
+        <v>355</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>68</v>
+        <v>285</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>388</v>
+        <v>44</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>513</v>
+        <v>196</v>
+      </c>
+      <c r="O33" s="2">
+        <v>69</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>114</v>
+        <v>320</v>
       </c>
       <c r="Q33" s="2" t="s">
         <v>57</v>
@@ -4454,28 +4534,28 @@
         <v>5</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="T33" s="2" t="str" cm="1">
         <f t="array" ref="T33">_xlfn.REGEXEXTRACT(A33,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>spankbang.com</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>20</v>
+        <v>260</v>
       </c>
       <c r="B34" s="2">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>450</v>
+        <v>385</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>44</v>
+        <v>375</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>44</v>
@@ -4484,10 +4564,10 @@
         <v>81</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>112</v>
+        <v>596</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>100</v>
@@ -4496,19 +4576,19 @@
         <v>68</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>436</v>
+        <v>388</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>120</v>
+        <v>386</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>154</v>
+        <v>513</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="Q34" s="2" t="s">
         <v>57</v>
@@ -4517,25 +4597,25 @@
         <v>5</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>451</v>
+        <v>387</v>
       </c>
       <c r="T34" s="2" t="str" cm="1">
         <f t="array" ref="T34">_xlfn.REGEXEXTRACT(A34,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>bdsmstreak.com</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B35" s="2">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>474</v>
+        <v>97</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>395</v>
+        <v>450</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>44</v>
@@ -4544,34 +4624,34 @@
         <v>44</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H35" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J35" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="K35" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="L35" s="2" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>475</v>
+        <v>120</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>386</v>
+        <v>154</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="Q35" s="2" t="s">
         <v>57</v>
@@ -4580,25 +4660,25 @@
         <v>5</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>476</v>
+        <v>451</v>
       </c>
       <c r="T35" s="2" t="str" cm="1">
         <f t="array" ref="T35">_xlfn.REGEXEXTRACT(A35,"(?&lt;=//)[^/]+")</f>
-        <v>hcbdsm.com</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B36" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>114</v>
+        <v>474</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>477</v>
+        <v>395</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>44</v>
@@ -4607,7 +4687,7 @@
         <v>44</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>100</v>
@@ -4616,25 +4696,25 @@
         <v>68</v>
       </c>
       <c r="J36" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K36" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="K36" s="2" t="s">
-        <v>311</v>
-      </c>
       <c r="L36" s="2" t="s">
-        <v>230</v>
+        <v>95</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>472</v>
+        <v>416</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>522</v>
+        <v>475</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>441</v>
+        <v>386</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>479</v>
+        <v>93</v>
       </c>
       <c r="Q36" s="2" t="s">
         <v>57</v>
@@ -4643,25 +4723,25 @@
         <v>5</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="T36" s="2" t="str" cm="1">
         <f t="array" ref="T36">_xlfn.REGEXEXTRACT(A36,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>hcbdsm.com</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>266</v>
+        <v>18</v>
       </c>
       <c r="B37" s="2">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>349</v>
+        <v>477</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>44</v>
@@ -4673,31 +4753,31 @@
         <v>81</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>433</v>
+        <v>100</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>502</v>
+        <v>125</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>504</v>
+        <v>311</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>505</v>
+        <v>472</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>386</v>
+        <v>522</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>501</v>
+        <v>441</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>69</v>
+        <v>479</v>
       </c>
       <c r="Q37" s="2" t="s">
         <v>57</v>
@@ -4706,25 +4786,25 @@
         <v>5</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>503</v>
+        <v>478</v>
       </c>
       <c r="T37" s="2" t="str" cm="1">
         <f t="array" ref="T37">_xlfn.REGEXEXTRACT(A37,"(?&lt;=//)[^/]+")</f>
-        <v>curebdsm.com</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>28</v>
+        <v>266</v>
       </c>
       <c r="B38" s="2">
         <v>55</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>281</v>
+        <v>97</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>281</v>
+        <v>349</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>44</v>
@@ -4733,34 +4813,34 @@
         <v>44</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>507</v>
+        <v>433</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>118</v>
+        <v>504</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>472</v>
+        <v>127</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>431</v>
+        <v>505</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>509</v>
+        <v>386</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>459</v>
+        <v>501</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>510</v>
+        <v>69</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>57</v>
@@ -4769,25 +4849,25 @@
         <v>5</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="T38" s="2" t="str" cm="1">
         <f t="array" ref="T38">_xlfn.REGEXEXTRACT(A38,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
+        <v>curebdsm.com</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B39" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>156</v>
+        <v>281</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>400</v>
+        <v>281</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>44</v>
@@ -4796,34 +4876,34 @@
         <v>44</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>100</v>
+        <v>507</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>164</v>
+        <v>83</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>61</v>
+        <v>508</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>166</v>
+        <v>118</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>167</v>
+        <v>472</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>84</v>
+        <v>431</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>132</v>
+        <v>509</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>165</v>
+        <v>459</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>44</v>
+        <v>510</v>
       </c>
       <c r="Q39" s="2" t="s">
         <v>57</v>
@@ -4832,58 +4912,58 @@
         <v>5</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>212</v>
+        <v>511</v>
       </c>
       <c r="T39" s="2" t="str" cm="1">
         <f t="array" ref="T39">_xlfn.REGEXEXTRACT(A39,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>spankbang.com</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B40" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>97</v>
+        <v>156</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>179</v>
+        <v>400</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>181</v>
+        <v>44</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="H40" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="M40" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I40" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="N40" s="2" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="P40" s="2" t="s">
         <v>44</v>
@@ -4895,61 +4975,61 @@
         <v>5</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="T40" s="2" t="str" cm="1">
         <f t="array" ref="T40">_xlfn.REGEXEXTRACT(A40,"(?&lt;=//)[^/]+")</f>
         <v>bdsmstreak.com</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>572</v>
+        <v>22</v>
       </c>
       <c r="B41" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>474</v>
+        <v>97</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>573</v>
+        <v>179</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>44</v>
+        <v>181</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>426</v>
+        <v>68</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K41" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L41" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="L41" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="M41" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>92</v>
+        <v>182</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>526</v>
+        <v>44</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>441</v>
+        <v>44</v>
       </c>
       <c r="Q41" s="2" t="s">
         <v>57</v>
@@ -4958,25 +5038,25 @@
         <v>5</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>574</v>
+        <v>184</v>
       </c>
       <c r="T41" s="2" t="str" cm="1">
         <f t="array" ref="T41">_xlfn.REGEXEXTRACT(A41,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B42" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>114</v>
+        <v>474</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>44</v>
@@ -4985,34 +5065,34 @@
         <v>44</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>448</v>
+        <v>83</v>
       </c>
       <c r="I42" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K42" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J42" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="L42" s="2" t="s">
-        <v>496</v>
+        <v>95</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>119</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>92</v>
+        <v>526</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>320</v>
+        <v>441</v>
       </c>
       <c r="Q42" s="2" t="s">
         <v>57</v>
@@ -5021,7 +5101,7 @@
         <v>5</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="T42" s="2" t="str" cm="1">
         <f t="array" ref="T42">_xlfn.REGEXEXTRACT(A42,"(?&lt;=//)[^/]+")</f>
@@ -5030,16 +5110,16 @@
     </row>
     <row r="43" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="B43" s="2">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>44</v>
@@ -5048,10 +5128,10 @@
         <v>44</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>83</v>
+        <v>448</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>100</v>
@@ -5060,22 +5140,22 @@
         <v>68</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>127</v>
+        <v>496</v>
       </c>
       <c r="M43" s="2" t="s">
         <v>119</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>459</v>
+        <v>154</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>526</v>
+        <v>320</v>
       </c>
       <c r="Q43" s="2" t="s">
         <v>57</v>
@@ -5084,7 +5164,7 @@
         <v>5</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="T43" s="2" t="str" cm="1">
         <f t="array" ref="T43">_xlfn.REGEXEXTRACT(A43,"(?&lt;=//)[^/]+")</f>
@@ -5093,52 +5173,52 @@
     </row>
     <row r="44" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>611</v>
+        <v>585</v>
       </c>
       <c r="B44" s="2">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>512</v>
+        <v>586</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>181</v>
+        <v>44</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H44" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I44" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I44" s="2" t="s">
-        <v>612</v>
-      </c>
       <c r="J44" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>613</v>
+        <v>127</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>614</v>
+        <v>119</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>615</v>
+        <v>459</v>
       </c>
       <c r="O44" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P44" s="2" t="s">
         <v>526</v>
-      </c>
-      <c r="P44" s="2" t="s">
-        <v>616</v>
       </c>
       <c r="Q44" s="2" t="s">
         <v>57</v>
@@ -5147,28 +5227,28 @@
         <v>5</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>617</v>
+        <v>587</v>
       </c>
       <c r="T44" s="2" t="str" cm="1">
         <f t="array" ref="T44">_xlfn.REGEXEXTRACT(A44,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="B45" s="2">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>619</v>
+        <v>97</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>620</v>
+        <v>512</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>44</v>
+        <v>181</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>44</v>
@@ -5177,31 +5257,31 @@
         <v>81</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>434</v>
+        <v>100</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>115</v>
+        <v>612</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>605</v>
+        <v>72</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>621</v>
+        <v>139</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>68</v>
+        <v>613</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>83</v>
+        <v>614</v>
       </c>
       <c r="N45" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="O45" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="O45" s="2" t="s">
-        <v>622</v>
-      </c>
       <c r="P45" s="2" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="Q45" s="2" t="s">
         <v>57</v>
@@ -5210,25 +5290,25 @@
         <v>5</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="T45" s="2" t="str" cm="1">
         <f t="array" ref="T45">_xlfn.REGEXEXTRACT(A45,"(?&lt;=//)[^/]+")</f>
-        <v>punishworld.com</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>562</v>
+        <v>618</v>
       </c>
       <c r="B46" s="2">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>545</v>
+        <v>619</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>552</v>
+        <v>620</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>44</v>
@@ -5237,187 +5317,187 @@
         <v>44</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>325</v>
+        <v>81</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>563</v>
+        <v>434</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>44</v>
+        <v>605</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>44</v>
+        <v>621</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>563</v>
+        <v>526</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>44</v>
+        <v>622</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>44</v>
+        <v>601</v>
       </c>
       <c r="Q46" s="2" t="s">
         <v>57</v>
       </c>
       <c r="R46" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>564</v>
+        <v>623</v>
       </c>
       <c r="T46" s="2" t="str" cm="1">
         <f t="array" ref="T46">_xlfn.REGEXEXTRACT(A46,"(?&lt;=//)[^/]+")</f>
-        <v>netfapx.net</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>punishworld.com</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>565</v>
+        <v>646</v>
       </c>
       <c r="B47" s="2">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>545</v>
+        <v>281</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>552</v>
+        <v>281</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>44</v>
+        <v>281</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>563</v>
+        <v>84</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>44</v>
+        <v>285</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>44</v>
+        <v>647</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N47" s="2" t="s">
-        <v>563</v>
+        <v>648</v>
+      </c>
+      <c r="N47" s="2">
+        <v>69</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>44</v>
+        <v>192</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="Q47" s="2" t="s">
         <v>57</v>
       </c>
       <c r="R47" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>566</v>
+        <v>649</v>
       </c>
       <c r="T47" s="2" t="str" cm="1">
         <f t="array" ref="T47">_xlfn.REGEXEXTRACT(A47,"(?&lt;=//)[^/]+")</f>
-        <v>pornzog</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="B48" s="2">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>393</v>
+        <v>651</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>44</v>
+        <v>281</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>326</v>
+        <v>81</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>86</v>
+        <v>596</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>337</v>
+        <v>652</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>299</v>
+        <v>139</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>44</v>
+        <v>557</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>44</v>
+        <v>285</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>287</v>
+        <v>192</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>94</v>
+        <v>342</v>
       </c>
       <c r="P48" s="2" t="s">
         <v>93</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>57</v>
+        <v>653</v>
       </c>
       <c r="R48" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>286</v>
+        <v>654</v>
       </c>
       <c r="T48" s="2" t="str" cm="1">
         <f t="array" ref="T48">_xlfn.REGEXEXTRACT(A48,"(?&lt;=//)[^/]+")</f>
-        <v>xhamster18.desi</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>272</v>
+        <v>562</v>
       </c>
       <c r="B49" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>295</v>
+        <v>545</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>133</v>
+        <v>552</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>44</v>
@@ -5429,13 +5509,13 @@
         <v>325</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>86</v>
+        <v>563</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>337</v>
+        <v>44</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>44</v>
@@ -5446,14 +5526,14 @@
       <c r="M49" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N49" s="2">
-        <v>69</v>
-      </c>
-      <c r="O49" s="2">
-        <v>619</v>
+      <c r="N49" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>362</v>
+        <v>44</v>
       </c>
       <c r="Q49" s="2" t="s">
         <v>57</v>
@@ -5462,25 +5542,25 @@
         <v>4</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>296</v>
+        <v>564</v>
       </c>
       <c r="T49" s="2" t="str" cm="1">
         <f t="array" ref="T49">_xlfn.REGEXEXTRACT(A49,"(?&lt;=//)[^/]+")</f>
-        <v>www.porndead.org</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>netfapx.net</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>4</v>
+        <v>565</v>
       </c>
       <c r="B50" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>306</v>
+        <v>545</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>304</v>
+        <v>552</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>44</v>
@@ -5489,28 +5569,28 @@
         <v>44</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>81</v>
+        <v>325</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>86</v>
+        <v>563</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>337</v>
+        <v>44</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>600</v>
+        <v>44</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>285</v>
+        <v>44</v>
       </c>
       <c r="M50" s="2" t="s">
         <v>44</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>381</v>
+        <v>563</v>
       </c>
       <c r="O50" s="2" t="s">
         <v>44</v>
@@ -5525,25 +5605,25 @@
         <v>4</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>307</v>
+        <v>566</v>
       </c>
       <c r="T50" s="2" t="str" cm="1">
         <f t="array" ref="T50">_xlfn.REGEXEXTRACT(A50,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>pornzog</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="B51" s="2">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>306</v>
+        <v>393</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>44</v>
@@ -5552,19 +5632,19 @@
         <v>44</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>81</v>
+        <v>326</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>83</v>
+        <v>337</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>100</v>
+        <v>299</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>44</v>
@@ -5573,13 +5653,13 @@
         <v>44</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>114</v>
+        <v>287</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>308</v>
+        <v>94</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="Q51" s="2" t="s">
         <v>57</v>
@@ -5588,61 +5668,61 @@
         <v>4</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="T51" s="2" t="str" cm="1">
         <f t="array" ref="T51">_xlfn.REGEXEXTRACT(A51,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>xhamster18.desi</v>
       </c>
     </row>
     <row r="52" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="B52" s="2">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>97</v>
+        <v>295</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>395</v>
+        <v>133</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>181</v>
+        <v>44</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>81</v>
+        <v>325</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>77</v>
+        <v>337</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>337</v>
+        <v>44</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="N52" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="O52" s="2" t="s">
-        <v>94</v>
+        <v>44</v>
+      </c>
+      <c r="N52" s="2">
+        <v>69</v>
+      </c>
+      <c r="O52" s="2">
+        <v>619</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>44</v>
+        <v>362</v>
       </c>
       <c r="Q52" s="2" t="s">
         <v>57</v>
@@ -5651,25 +5731,25 @@
         <v>4</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="T52" s="2" t="str" cm="1">
         <f t="array" ref="T52">_xlfn.REGEXEXTRACT(A52,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>www.porndead.org</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>263</v>
+        <v>4</v>
       </c>
       <c r="B53" s="2">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>339</v>
+        <v>304</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>44</v>
@@ -5678,28 +5758,28 @@
         <v>44</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>330</v>
+        <v>81</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>127</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>256</v>
+        <v>600</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>344</v>
+        <v>285</v>
       </c>
       <c r="M53" s="2" t="s">
         <v>44</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>154</v>
+        <v>381</v>
       </c>
       <c r="O53" s="2" t="s">
         <v>44</v>
@@ -5714,25 +5794,25 @@
         <v>4</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>343</v>
+        <v>307</v>
       </c>
       <c r="T53" s="2" t="str" cm="1">
         <f t="array" ref="T53">_xlfn.REGEXEXTRACT(A53,"(?&lt;=//)[^/]+")</f>
-        <v>txxx.me</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="54" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>32</v>
+        <v>267</v>
       </c>
       <c r="B54" s="2">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>129</v>
+        <v>306</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>179</v>
+        <v>305</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>44</v>
@@ -5744,28 +5824,28 @@
         <v>81</v>
       </c>
       <c r="H54" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J54" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I54" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="K54" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="M54" s="2" t="s">
         <v>44</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>132</v>
+        <v>308</v>
       </c>
       <c r="P54" s="2" t="s">
         <v>44</v>
@@ -5777,61 +5857,61 @@
         <v>4</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="T54" s="2" t="str" cm="1">
         <f t="array" ref="T54">_xlfn.REGEXEXTRACT(A54,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="B55" s="2">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>319</v>
+        <v>97</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>44</v>
+        <v>181</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>325</v>
+        <v>81</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>358</v>
+        <v>115</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>359</v>
+        <v>100</v>
       </c>
       <c r="J55" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K55" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="K55" s="2" t="s">
-        <v>285</v>
-      </c>
       <c r="L55" s="2" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>44</v>
+        <v>431</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>93</v>
+        <v>192</v>
       </c>
       <c r="O55" s="2" t="s">
         <v>94</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>335</v>
+        <v>44</v>
       </c>
       <c r="Q55" s="2" t="s">
         <v>57</v>
@@ -5840,25 +5920,25 @@
         <v>4</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>357</v>
+        <v>318</v>
       </c>
       <c r="T55" s="2" t="str" cm="1">
         <f t="array" ref="T55">_xlfn.REGEXEXTRACT(A55,"(?&lt;=//)[^/]+")</f>
-        <v>pornxp.com</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="56" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="B56" s="2">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>97</v>
+        <v>338</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>377</v>
+        <v>339</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>44</v>
@@ -5867,31 +5947,31 @@
         <v>44</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>81</v>
+        <v>330</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>127</v>
+        <v>256</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>44</v>
+        <v>344</v>
       </c>
       <c r="M56" s="2" t="s">
         <v>44</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>380</v>
+        <v>154</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>378</v>
+        <v>44</v>
       </c>
       <c r="P56" s="2" t="s">
         <v>44</v>
@@ -5903,25 +5983,25 @@
         <v>4</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="T56" s="2" t="str" cm="1">
         <f t="array" ref="T56">_xlfn.REGEXEXTRACT(A56,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+        <v>txxx.me</v>
       </c>
     </row>
     <row r="57" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B57" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>411</v>
+        <v>179</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>44</v>
@@ -5933,31 +6013,31 @@
         <v>81</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>412</v>
+        <v>100</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>413</v>
+        <v>119</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>311</v>
+        <v>131</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>415</v>
+        <v>68</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>418</v>
+        <v>66</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>416</v>
+        <v>44</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>414</v>
+        <v>130</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>381</v>
+        <v>132</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>386</v>
+        <v>44</v>
       </c>
       <c r="Q57" s="2" t="s">
         <v>57</v>
@@ -5966,61 +6046,61 @@
         <v>4</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>417</v>
+        <v>276</v>
       </c>
       <c r="T57" s="2" t="str" cm="1">
         <f t="array" ref="T57">_xlfn.REGEXEXTRACT(A57,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="B58" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>422</v>
+        <v>356</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>424</v>
+        <v>44</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>423</v>
+        <v>325</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>125</v>
+        <v>358</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>68</v>
+        <v>359</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>426</v>
+        <v>337</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>66</v>
+        <v>285</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>154</v>
+        <v>93</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>427</v>
+        <v>335</v>
       </c>
       <c r="Q58" s="2" t="s">
         <v>57</v>
@@ -6029,25 +6109,25 @@
         <v>4</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>425</v>
+        <v>357</v>
       </c>
       <c r="T58" s="2" t="str" cm="1">
         <f t="array" ref="T58">_xlfn.REGEXEXTRACT(A58,"(?&lt;=//)[^/]+")</f>
-        <v>txxx.com</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>pornxp.com</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>23</v>
+        <v>246</v>
       </c>
       <c r="B59" s="2">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>432</v>
+        <v>377</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>44</v>
@@ -6059,31 +6139,31 @@
         <v>81</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>433</v>
+        <v>72</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>434</v>
+        <v>379</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>436</v>
+        <v>44</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>154</v>
+        <v>380</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>435</v>
+        <v>378</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="Q59" s="2" t="s">
         <v>57</v>
@@ -6092,25 +6172,25 @@
         <v>4</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>437</v>
+        <v>382</v>
       </c>
       <c r="T59" s="2" t="str" cm="1">
         <f t="array" ref="T59">_xlfn.REGEXEXTRACT(A59,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B60" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>113</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>445</v>
+        <v>411</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>44</v>
@@ -6122,31 +6202,31 @@
         <v>81</v>
       </c>
       <c r="H60" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="I60" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="I60" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="J60" s="2" t="s">
-        <v>412</v>
+        <v>311</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>447</v>
+        <v>415</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>448</v>
+        <v>418</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>446</v>
+        <v>414</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>192</v>
+        <v>381</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>44</v>
+        <v>386</v>
       </c>
       <c r="Q60" s="2" t="s">
         <v>57</v>
@@ -6155,7 +6235,7 @@
         <v>4</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>449</v>
+        <v>417</v>
       </c>
       <c r="T60" s="2" t="str" cm="1">
         <f t="array" ref="T60">_xlfn.REGEXEXTRACT(A60,"(?&lt;=//)[^/]+")</f>
@@ -6164,52 +6244,52 @@
     </row>
     <row r="61" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>7</v>
+        <v>259</v>
       </c>
       <c r="B61" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>281</v>
+        <v>422</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>44</v>
+        <v>424</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>81</v>
+        <v>423</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>285</v>
+        <v>125</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>100</v>
+        <v>426</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>484</v>
+        <v>92</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>154</v>
+        <v>427</v>
       </c>
       <c r="Q61" s="2" t="s">
         <v>57</v>
@@ -6218,25 +6298,25 @@
         <v>4</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>485</v>
+        <v>425</v>
       </c>
       <c r="T61" s="2" t="str" cm="1">
         <f t="array" ref="T61">_xlfn.REGEXEXTRACT(A61,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.party</v>
+        <v>txxx.com</v>
       </c>
     </row>
     <row r="62" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B62" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>389</v>
+        <v>114</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>179</v>
+        <v>432</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>44</v>
@@ -6245,34 +6325,34 @@
         <v>44</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>493</v>
+        <v>433</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>346</v>
+        <v>434</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>494</v>
+        <v>77</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>100</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>482</v>
+        <v>115</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="N62" s="2">
-        <v>69</v>
+        <v>436</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>192</v>
+        <v>435</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>497</v>
+        <v>114</v>
       </c>
       <c r="Q62" s="2" t="s">
         <v>57</v>
@@ -6281,25 +6361,25 @@
         <v>4</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>495</v>
+        <v>437</v>
       </c>
       <c r="T62" s="2" t="str" cm="1">
         <f t="array" ref="T62">_xlfn.REGEXEXTRACT(A62,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B63" s="2">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>492</v>
+        <v>445</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>44</v>
@@ -6311,31 +6391,31 @@
         <v>81</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>311</v>
+        <v>413</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>350</v>
+        <v>412</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>66</v>
+        <v>448</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>119</v>
+        <v>434</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>498</v>
+        <v>446</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>499</v>
+        <v>192</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="Q63" s="2" t="s">
         <v>57</v>
@@ -6344,7 +6424,7 @@
         <v>4</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>500</v>
+        <v>449</v>
       </c>
       <c r="T63" s="2" t="str" cm="1">
         <f t="array" ref="T63">_xlfn.REGEXEXTRACT(A63,"(?&lt;=//)[^/]+")</f>
@@ -6353,16 +6433,16 @@
     </row>
     <row r="64" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B64" s="2">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>113</v>
+        <v>306</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>399</v>
+        <v>281</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>44</v>
@@ -6374,31 +6454,31 @@
         <v>81</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>118</v>
+        <v>285</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>412</v>
+        <v>100</v>
       </c>
       <c r="K64" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M64" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="M64" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="N64" s="2" t="s">
         <v>114</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>116</v>
+        <v>484</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="Q64" s="2" t="s">
         <v>57</v>
@@ -6407,28 +6487,28 @@
         <v>4</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>117</v>
+        <v>485</v>
       </c>
       <c r="T64" s="2" t="str" cm="1">
         <f t="array" ref="T64">_xlfn.REGEXEXTRACT(A64,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+        <v>spankbang.party</v>
       </c>
     </row>
     <row r="65" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>539</v>
+        <v>34</v>
       </c>
       <c r="B65" s="2">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>97</v>
+        <v>389</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>540</v>
+        <v>179</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>541</v>
+        <v>44</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>44</v>
@@ -6437,31 +6517,31 @@
         <v>82</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>68</v>
+        <v>493</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>542</v>
+        <v>346</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>543</v>
+        <v>494</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>72</v>
+        <v>482</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="N65" s="2" t="s">
-        <v>94</v>
+        <v>496</v>
+      </c>
+      <c r="N65" s="2">
+        <v>69</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>320</v>
+        <v>192</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>526</v>
+        <v>497</v>
       </c>
       <c r="Q65" s="2" t="s">
         <v>57</v>
@@ -6470,7 +6550,7 @@
         <v>4</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>544</v>
+        <v>495</v>
       </c>
       <c r="T65" s="2" t="str" cm="1">
         <f t="array" ref="T65">_xlfn.REGEXEXTRACT(A65,"(?&lt;=//)[^/]+")</f>
@@ -6479,52 +6559,52 @@
     </row>
     <row r="66" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B66" s="2">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>225</v>
+        <v>114</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>401</v>
+        <v>492</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>407</v>
+        <v>44</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>95</v>
+        <v>311</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>84</v>
+        <v>350</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>85</v>
+        <v>433</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>92</v>
+        <v>498</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>93</v>
+        <v>499</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="Q66" s="2" t="s">
         <v>57</v>
@@ -6533,28 +6613,28 @@
         <v>4</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>96</v>
+        <v>500</v>
       </c>
       <c r="T66" s="2" t="str" cm="1">
         <f t="array" ref="T66">_xlfn.REGEXEXTRACT(A66,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>568</v>
+        <v>21</v>
       </c>
       <c r="B67" s="2">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>277</v>
+        <v>113</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>569</v>
+        <v>399</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>570</v>
+        <v>44</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>44</v>
@@ -6563,31 +6643,31 @@
         <v>81</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>100</v>
+        <v>412</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>472</v>
+        <v>119</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>526</v>
+        <v>44</v>
       </c>
       <c r="Q67" s="2" t="s">
         <v>57</v>
@@ -6596,61 +6676,61 @@
         <v>4</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>571</v>
+        <v>117</v>
       </c>
       <c r="T67" s="2" t="str" cm="1">
         <f t="array" ref="T67">_xlfn.REGEXEXTRACT(A67,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>bdsmstreak.com</v>
       </c>
     </row>
     <row r="68" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>36</v>
+        <v>539</v>
       </c>
       <c r="B68" s="2">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>157</v>
+        <v>540</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>44</v>
+        <v>541</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>159</v>
+        <v>68</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>160</v>
+        <v>542</v>
       </c>
       <c r="J68" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M68" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K68" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L68" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="N68" s="2" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>154</v>
+        <v>320</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>161</v>
+        <v>526</v>
       </c>
       <c r="Q68" s="2" t="s">
         <v>57</v>
@@ -6659,28 +6739,28 @@
         <v>4</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>163</v>
+        <v>544</v>
       </c>
       <c r="T68" s="2" t="str" cm="1">
         <f t="array" ref="T68">_xlfn.REGEXEXTRACT(A68,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="69" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>227</v>
+        <v>17</v>
       </c>
       <c r="B69" s="2">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>44</v>
@@ -6689,31 +6769,31 @@
         <v>82</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>228</v>
+        <v>95</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>230</v>
+        <v>84</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>526</v>
+        <v>92</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>154</v>
+        <v>93</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>161</v>
+        <v>94</v>
       </c>
       <c r="Q69" s="2" t="s">
         <v>57</v>
@@ -6722,61 +6802,61 @@
         <v>4</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>229</v>
+        <v>96</v>
       </c>
       <c r="T69" s="2" t="str" cm="1">
         <f t="array" ref="T69">_xlfn.REGEXEXTRACT(A69,"(?&lt;=//)[^/]+")</f>
-        <v>pornxp.com</v>
+        <v>bdsmstreak.com</v>
       </c>
     </row>
     <row r="70" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>624</v>
+        <v>568</v>
       </c>
       <c r="B70" s="2">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>625</v>
+        <v>277</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>626</v>
+        <v>569</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>44</v>
+        <v>570</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>325</v>
+        <v>81</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>627</v>
+        <v>112</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>297</v>
+        <v>68</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>434</v>
+        <v>100</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>86</v>
+        <v>472</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>628</v>
+        <v>127</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>629</v>
+        <v>139</v>
       </c>
       <c r="N70" s="2" t="s">
         <v>154</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>630</v>
+        <v>93</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>631</v>
+        <v>526</v>
       </c>
       <c r="Q70" s="2" t="s">
         <v>57</v>
@@ -6785,25 +6865,25 @@
         <v>4</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>632</v>
+        <v>571</v>
       </c>
       <c r="T70" s="2" t="str" cm="1">
         <f t="array" ref="T70">_xlfn.REGEXEXTRACT(A70,"(?&lt;=//)[^/]+")</f>
-        <v>m.hqporner.com</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="71" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>556</v>
+        <v>36</v>
       </c>
       <c r="B71" s="2">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>545</v>
+        <v>156</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>305</v>
+        <v>157</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>44</v>
@@ -6812,124 +6892,124 @@
         <v>44</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>557</v>
+        <v>159</v>
       </c>
       <c r="I71" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J71" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J71" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="K71" s="2" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>86</v>
+        <v>162</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>554</v>
+        <v>44</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>342</v>
+        <v>151</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>441</v>
+        <v>154</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>386</v>
+        <v>161</v>
       </c>
       <c r="Q71" s="2" t="s">
         <v>57</v>
       </c>
       <c r="R71" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>558</v>
+        <v>163</v>
       </c>
       <c r="T71" s="2" t="str" cm="1">
         <f t="array" ref="T71">_xlfn.REGEXEXTRACT(A71,"(?&lt;=//)[^/]+")</f>
-        <v>curebdsm.com</v>
+        <v>bdsmstreak.com</v>
       </c>
     </row>
     <row r="72" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>559</v>
+        <v>227</v>
       </c>
       <c r="B72" s="2">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>545</v>
+        <v>224</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>349</v>
+        <v>403</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>44</v>
+        <v>409</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>557</v>
+        <v>228</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>139</v>
+        <v>230</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>560</v>
+        <v>44</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="N72" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="O72" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="O72" s="2" t="s">
-        <v>501</v>
-      </c>
       <c r="P72" s="2" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="Q72" s="2" t="s">
         <v>57</v>
       </c>
       <c r="R72" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>561</v>
+        <v>229</v>
       </c>
       <c r="T72" s="2" t="str" cm="1">
         <f t="array" ref="T72">_xlfn.REGEXEXTRACT(A72,"(?&lt;=//)[^/]+")</f>
-        <v>curebdsm.com</v>
+        <v>pornxp.com</v>
       </c>
     </row>
     <row r="73" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>25</v>
+        <v>624</v>
       </c>
       <c r="B73" s="2">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>75</v>
+        <v>625</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>394</v>
+        <v>626</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>44</v>
@@ -6938,124 +7018,124 @@
         <v>44</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>81</v>
+        <v>325</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>67</v>
+        <v>627</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>77</v>
+        <v>297</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>76</v>
+        <v>434</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>44</v>
+        <v>628</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>44</v>
+        <v>629</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>44</v>
+        <v>630</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>44</v>
+        <v>631</v>
       </c>
       <c r="Q73" s="2" t="s">
         <v>57</v>
       </c>
       <c r="R73" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>78</v>
+        <v>632</v>
       </c>
       <c r="T73" s="2" t="str" cm="1">
         <f t="array" ref="T73">_xlfn.REGEXEXTRACT(A73,"(?&lt;=//)[^/]+")</f>
-        <v>anyporn.com</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>m.hqporner.com</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>270</v>
+        <v>655</v>
       </c>
       <c r="B74" s="2">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>288</v>
+        <v>656</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>289</v>
+        <v>657</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>44</v>
+        <v>658</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>325</v>
+        <v>82</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>67</v>
+        <v>482</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>86</v>
+        <v>434</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>337</v>
+        <v>119</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>230</v>
+        <v>659</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>292</v>
+        <v>660</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>293</v>
+        <v>661</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>290</v>
+        <v>154</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>93</v>
+        <v>601</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>291</v>
+        <v>459</v>
       </c>
       <c r="Q74" s="2" t="s">
         <v>57</v>
       </c>
       <c r="R74" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S74" s="2" t="s">
-        <v>294</v>
+        <v>662</v>
       </c>
       <c r="T74" s="2" t="str" cm="1">
         <f t="array" ref="T74">_xlfn.REGEXEXTRACT(A74,"(?&lt;=//)[^/]+")</f>
-        <v>www.tnaflix.com</v>
+        <v>punishbang.com</v>
       </c>
     </row>
     <row r="75" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>6</v>
+        <v>663</v>
       </c>
       <c r="B75" s="2">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>44</v>
@@ -7067,94 +7147,94 @@
         <v>81</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>119</v>
+        <v>596</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>83</v>
+        <v>614</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>311</v>
+        <v>434</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>109</v>
+        <v>664</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>44</v>
+        <v>665</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>44</v>
+        <v>666</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>44</v>
+        <v>667</v>
       </c>
       <c r="Q75" s="2" t="s">
         <v>57</v>
       </c>
       <c r="R75" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S75" s="2" t="s">
-        <v>312</v>
+        <v>668</v>
       </c>
       <c r="T75" s="2" t="str" cm="1">
         <f t="array" ref="T75">_xlfn.REGEXEXTRACT(A75,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>punishbang.com</v>
       </c>
     </row>
     <row r="76" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>188</v>
+        <v>556</v>
       </c>
       <c r="B76" s="2">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>191</v>
+        <v>545</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>189</v>
+        <v>305</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>190</v>
+        <v>44</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>219</v>
+        <v>557</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>222</v>
+        <v>68</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>223</v>
+        <v>119</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>44</v>
+        <v>554</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>218</v>
+        <v>342</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>44</v>
+        <v>441</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>44</v>
+        <v>386</v>
       </c>
       <c r="Q76" s="2" t="s">
         <v>57</v>
@@ -7163,25 +7243,25 @@
         <v>3</v>
       </c>
       <c r="S76" s="2" t="s">
-        <v>221</v>
+        <v>558</v>
       </c>
       <c r="T76" s="2" t="str" cm="1">
         <f t="array" ref="T76">_xlfn.REGEXEXTRACT(A76,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>curebdsm.com</v>
       </c>
     </row>
     <row r="77" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>248</v>
+        <v>559</v>
       </c>
       <c r="B77" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>97</v>
+        <v>545</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>395</v>
+        <v>349</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>44</v>
@@ -7193,31 +7273,31 @@
         <v>81</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>119</v>
+        <v>557</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>299</v>
+        <v>100</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>72</v>
+        <v>560</v>
       </c>
       <c r="L77" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M77" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M77" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="N77" s="2" t="s">
-        <v>315</v>
+        <v>154</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>196</v>
+        <v>501</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="Q77" s="2" t="s">
         <v>57</v>
@@ -7226,25 +7306,25 @@
         <v>3</v>
       </c>
       <c r="S77" s="2" t="s">
-        <v>316</v>
+        <v>561</v>
       </c>
       <c r="T77" s="2" t="str" cm="1">
         <f t="array" ref="T77">_xlfn.REGEXEXTRACT(A77,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>curebdsm.com</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B78" s="2">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>319</v>
+        <v>75</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>133</v>
+        <v>394</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>44</v>
@@ -7253,16 +7333,16 @@
         <v>44</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>325</v>
+        <v>81</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>285</v>
+        <v>76</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>44</v>
@@ -7274,13 +7354,13 @@
         <v>44</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>290</v>
+        <v>73</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>320</v>
+        <v>44</v>
       </c>
       <c r="Q78" s="2" t="s">
         <v>57</v>
@@ -7289,61 +7369,61 @@
         <v>3</v>
       </c>
       <c r="S78" s="2" t="s">
-        <v>321</v>
+        <v>78</v>
       </c>
       <c r="T78" s="2" t="str" cm="1">
         <f t="array" ref="T78">_xlfn.REGEXEXTRACT(A78,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhub.com</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>anyporn.com</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>42</v>
+        <v>270</v>
       </c>
       <c r="B79" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>322</v>
+        <v>288</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>324</v>
+        <v>44</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>127</v>
+        <v>337</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>328</v>
+        <v>230</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>44</v>
+        <v>293</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="O79" s="2">
-        <v>69</v>
+        <v>290</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>103</v>
+        <v>291</v>
       </c>
       <c r="Q79" s="2" t="s">
         <v>57</v>
@@ -7352,25 +7432,25 @@
         <v>3</v>
       </c>
       <c r="S79" s="2" t="s">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="T79" s="2" t="str" cm="1">
         <f t="array" ref="T79">_xlfn.REGEXEXTRACT(A79,"(?&lt;=//)[^/]+")</f>
-        <v>tube.perverzija.com</v>
+        <v>www.tnaflix.com</v>
       </c>
     </row>
     <row r="80" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B80" s="2">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>44</v>
@@ -7379,34 +7459,34 @@
         <v>44</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>326</v>
+        <v>81</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>334</v>
+        <v>83</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>337</v>
+        <v>100</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>44</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>335</v>
+        <v>44</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>57</v>
@@ -7415,28 +7495,28 @@
         <v>3</v>
       </c>
       <c r="S80" s="2" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="T80" s="2" t="str" cm="1">
         <f t="array" ref="T80">_xlfn.REGEXEXTRACT(A80,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhub.com</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="81" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="B81" s="2">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>191</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>341</v>
+        <v>190</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>44</v>
@@ -7445,16 +7525,16 @@
         <v>82</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>345</v>
+        <v>219</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>346</v>
+        <v>220</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>348</v>
+        <v>222</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>44</v>
+        <v>223</v>
       </c>
       <c r="L81" s="2" t="s">
         <v>44</v>
@@ -7463,10 +7543,10 @@
         <v>44</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>154</v>
+        <v>218</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>161</v>
+        <v>44</v>
       </c>
       <c r="P81" s="2" t="s">
         <v>44</v>
@@ -7478,25 +7558,25 @@
         <v>3</v>
       </c>
       <c r="S81" s="2" t="s">
-        <v>347</v>
+        <v>221</v>
       </c>
       <c r="T81" s="2" t="str" cm="1">
         <f t="array" ref="T81">_xlfn.REGEXEXTRACT(A81,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="B82" s="2">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>360</v>
+        <v>97</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>361</v>
+        <v>395</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>44</v>
@@ -7505,34 +7585,34 @@
         <v>44</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>325</v>
+        <v>81</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>230</v>
+        <v>299</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>365</v>
+        <v>100</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="M82" s="2" t="s">
         <v>44</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>363</v>
+        <v>315</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>320</v>
+        <v>196</v>
       </c>
       <c r="P82" s="2" t="s">
-        <v>342</v>
+        <v>44</v>
       </c>
       <c r="Q82" s="2" t="s">
         <v>57</v>
@@ -7541,22 +7621,22 @@
         <v>3</v>
       </c>
       <c r="S82" s="2" t="s">
-        <v>364</v>
+        <v>316</v>
       </c>
       <c r="T82" s="2" t="str" cm="1">
         <f t="array" ref="T82">_xlfn.REGEXEXTRACT(A82,"(?&lt;=//)[^/]+")</f>
-        <v>pornxp.com</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="83" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B83" s="2">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>383</v>
+        <v>319</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>133</v>
@@ -7571,16 +7651,16 @@
         <v>325</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>302</v>
+        <v>86</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>86</v>
+        <v>337</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>84</v>
+        <v>285</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>337</v>
+        <v>44</v>
       </c>
       <c r="L83" s="2" t="s">
         <v>44</v>
@@ -7589,13 +7669,13 @@
         <v>44</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>380</v>
+        <v>290</v>
       </c>
       <c r="O83" s="2" t="s">
         <v>93</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>94</v>
+        <v>320</v>
       </c>
       <c r="Q83" s="2" t="s">
         <v>57</v>
@@ -7604,7 +7684,7 @@
         <v>3</v>
       </c>
       <c r="S83" s="2" t="s">
-        <v>384</v>
+        <v>321</v>
       </c>
       <c r="T83" s="2" t="str" cm="1">
         <f t="array" ref="T83">_xlfn.REGEXEXTRACT(A83,"(?&lt;=//)[^/]+")</f>
@@ -7613,76 +7693,76 @@
     </row>
     <row r="84" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>183</v>
+        <v>42</v>
       </c>
       <c r="B84" s="2">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>169</v>
+        <v>322</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>185</v>
+        <v>323</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>44</v>
+        <v>324</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>195</v>
+        <v>84</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>198</v>
+        <v>328</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>44</v>
+        <v>329</v>
       </c>
       <c r="M84" s="2" t="s">
         <v>44</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="O84" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="O84" s="2">
+        <v>69</v>
+      </c>
+      <c r="P84" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="P84" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="Q84" s="2" t="s">
-        <v>197</v>
+        <v>57</v>
       </c>
       <c r="R84" s="3">
         <v>3</v>
       </c>
       <c r="S84" s="2" t="s">
-        <v>215</v>
+        <v>327</v>
       </c>
       <c r="T84" s="2" t="str" cm="1">
         <f t="array" ref="T84">_xlfn.REGEXEXTRACT(A84,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+        <v>tube.perverzija.com</v>
       </c>
     </row>
     <row r="85" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="B85" s="2">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>419</v>
+        <v>331</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>332</v>
@@ -7694,19 +7774,19 @@
         <v>44</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>420</v>
+        <v>67</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>86</v>
+        <v>334</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>337</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>285</v>
+        <v>336</v>
       </c>
       <c r="L85" s="2" t="s">
         <v>44</v>
@@ -7715,13 +7795,13 @@
         <v>44</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>290</v>
+        <v>154</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="P85" s="2" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
       <c r="Q85" s="2" t="s">
         <v>57</v>
@@ -7730,61 +7810,61 @@
         <v>3</v>
       </c>
       <c r="S85" s="2" t="s">
-        <v>421</v>
+        <v>333</v>
       </c>
       <c r="T85" s="2" t="str" cm="1">
         <f t="array" ref="T85">_xlfn.REGEXEXTRACT(A85,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
+        <v>www.pornhub.com</v>
       </c>
     </row>
     <row r="86" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B86" s="2">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>277</v>
+        <v>191</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>443</v>
+        <v>191</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>44</v>
+        <v>341</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>420</v>
+        <v>345</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>100</v>
+        <v>346</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>119</v>
+        <v>348</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>448</v>
+        <v>44</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="P86" s="2" t="s">
-        <v>151</v>
+        <v>44</v>
       </c>
       <c r="Q86" s="2" t="s">
         <v>57</v>
@@ -7793,61 +7873,61 @@
         <v>3</v>
       </c>
       <c r="S86" s="2" t="s">
-        <v>444</v>
+        <v>347</v>
       </c>
       <c r="T86" s="2" t="str" cm="1">
         <f t="array" ref="T86">_xlfn.REGEXEXTRACT(A86,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>9</v>
+        <v>273</v>
       </c>
       <c r="B87" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>281</v>
+        <v>360</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>456</v>
+        <v>44</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>340</v>
+        <v>86</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>458</v>
+        <v>230</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>84</v>
+        <v>365</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>302</v>
+        <v>127</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>337</v>
+        <v>44</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="N87" s="2">
-        <v>69</v>
+        <v>44</v>
+      </c>
+      <c r="N87" s="2" t="s">
+        <v>363</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>93</v>
+        <v>320</v>
       </c>
       <c r="P87" s="2" t="s">
-        <v>154</v>
+        <v>342</v>
       </c>
       <c r="Q87" s="2" t="s">
         <v>57</v>
@@ -7856,25 +7936,25 @@
         <v>3</v>
       </c>
       <c r="S87" s="2" t="s">
-        <v>457</v>
+        <v>364</v>
       </c>
       <c r="T87" s="2" t="str" cm="1">
         <f t="array" ref="T87">_xlfn.REGEXEXTRACT(A87,"(?&lt;=//)[^/]+")</f>
-        <v>spankbang.com</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>pornxp.com</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>175</v>
+        <v>1</v>
       </c>
       <c r="B88" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>156</v>
+        <v>383</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>44</v>
@@ -7883,34 +7963,34 @@
         <v>44</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>158</v>
+        <v>325</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>83</v>
+        <v>302</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>177</v>
+        <v>86</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>488</v>
+        <v>84</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>178</v>
+        <v>337</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="M88" s="2" t="s">
         <v>44</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>154</v>
+        <v>380</v>
       </c>
       <c r="O88" s="2" t="s">
         <v>93</v>
       </c>
       <c r="P88" s="2" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="Q88" s="2" t="s">
         <v>57</v>
@@ -7919,25 +7999,25 @@
         <v>3</v>
       </c>
       <c r="S88" s="2" t="s">
-        <v>214</v>
+        <v>384</v>
       </c>
       <c r="T88" s="2" t="str" cm="1">
         <f t="array" ref="T88">_xlfn.REGEXEXTRACT(A88,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhits.com</v>
+        <v>www.pornhub.com</v>
       </c>
     </row>
     <row r="89" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>486</v>
+        <v>183</v>
       </c>
       <c r="B89" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>487</v>
+        <v>185</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>44</v>
@@ -7946,97 +8026,97 @@
         <v>44</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>488</v>
+        <v>195</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>489</v>
+        <v>139</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>61</v>
+        <v>198</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>472</v>
+        <v>44</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>491</v>
+        <v>44</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="P89" s="2" t="s">
-        <v>386</v>
+        <v>44</v>
       </c>
       <c r="Q89" s="2" t="s">
-        <v>57</v>
+        <v>197</v>
       </c>
       <c r="R89" s="3">
         <v>3</v>
       </c>
       <c r="S89" s="2" t="s">
-        <v>490</v>
+        <v>215</v>
       </c>
       <c r="T89" s="2" t="str" cm="1">
         <f t="array" ref="T89">_xlfn.REGEXEXTRACT(A89,"(?&lt;=//)[^/]+")</f>
-        <v>pervtube.net</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>37</v>
+        <v>262</v>
       </c>
       <c r="B90" s="2">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>402</v>
+        <v>332</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>408</v>
+        <v>44</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>80</v>
+        <v>325</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>77</v>
+        <v>420</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>152</v>
+        <v>337</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>153</v>
+        <v>285</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>69</v>
+        <v>290</v>
       </c>
       <c r="O90" s="2" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="P90" s="2" t="s">
-        <v>44</v>
+        <v>363</v>
       </c>
       <c r="Q90" s="2" t="s">
         <v>57</v>
@@ -8045,25 +8125,25 @@
         <v>3</v>
       </c>
       <c r="S90" s="2" t="s">
-        <v>211</v>
+        <v>421</v>
       </c>
       <c r="T90" s="2" t="str" cm="1">
         <f t="array" ref="T90">_xlfn.REGEXEXTRACT(A90,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+        <v>spankbang.com</v>
       </c>
     </row>
     <row r="91" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>269</v>
+        <v>19</v>
       </c>
       <c r="B91" s="2">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>97</v>
+        <v>277</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>349</v>
+        <v>443</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>44</v>
@@ -8075,31 +8155,31 @@
         <v>81</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>311</v>
+        <v>420</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>527</v>
+        <v>119</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>44</v>
+        <v>448</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>154</v>
+        <v>93</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>44</v>
+        <v>192</v>
       </c>
       <c r="P91" s="2" t="s">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="Q91" s="2" t="s">
         <v>57</v>
@@ -8108,61 +8188,61 @@
         <v>3</v>
       </c>
       <c r="S91" s="2" t="s">
-        <v>506</v>
+        <v>444</v>
       </c>
       <c r="T91" s="2" t="str" cm="1">
         <f t="array" ref="T91">_xlfn.REGEXEXTRACT(A91,"(?&lt;=//)[^/]+")</f>
-        <v>curebdsm.com</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B92" s="2">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>226</v>
+        <v>281</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>404</v>
+        <v>323</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>44</v>
+        <v>456</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>81</v>
+        <v>330</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>105</v>
+        <v>340</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>106</v>
+        <v>458</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>108</v>
+        <v>302</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>109</v>
+        <v>337</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="N92" s="2" t="s">
-        <v>107</v>
+        <v>285</v>
+      </c>
+      <c r="N92" s="2">
+        <v>69</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>435</v>
+        <v>93</v>
       </c>
       <c r="P92" s="2" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="Q92" s="2" t="s">
         <v>57</v>
@@ -8171,25 +8251,25 @@
         <v>3</v>
       </c>
       <c r="S92" s="2" t="s">
-        <v>206</v>
+        <v>457</v>
       </c>
       <c r="T92" s="2" t="str" cm="1">
         <f t="array" ref="T92">_xlfn.REGEXEXTRACT(A92,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>spankbang.com</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>633</v>
+        <v>175</v>
       </c>
       <c r="B93" s="2">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>634</v>
+        <v>176</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>44</v>
@@ -8198,34 +8278,34 @@
         <v>44</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>520</v>
+        <v>177</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>635</v>
+        <v>488</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>72</v>
+        <v>178</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>636</v>
+        <v>61</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>637</v>
+        <v>93</v>
       </c>
       <c r="P93" s="2" t="s">
-        <v>638</v>
+        <v>44</v>
       </c>
       <c r="Q93" s="2" t="s">
         <v>57</v>
@@ -8234,25 +8314,25 @@
         <v>3</v>
       </c>
       <c r="S93" s="2" t="s">
-        <v>639</v>
+        <v>214</v>
       </c>
       <c r="T93" s="2" t="str" cm="1">
         <f t="array" ref="T93">_xlfn.REGEXEXTRACT(A93,"(?&lt;=//)[^/]+")</f>
-        <v>bdsmstreak.com</v>
+        <v>www.pornhits.com</v>
       </c>
     </row>
     <row r="94" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>231</v>
+        <v>486</v>
       </c>
       <c r="B94" s="2">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>232</v>
+        <v>156</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>233</v>
+        <v>487</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>44</v>
@@ -8264,61 +8344,61 @@
         <v>158</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>234</v>
+        <v>100</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>235</v>
+        <v>488</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>236</v>
+        <v>489</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>238</v>
+        <v>472</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>239</v>
+        <v>491</v>
       </c>
       <c r="N94" s="2" t="s">
         <v>154</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="P94" s="2" t="s">
-        <v>44</v>
+        <v>386</v>
       </c>
       <c r="Q94" s="2" t="s">
         <v>57</v>
       </c>
       <c r="R94" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S94" s="2" t="s">
-        <v>237</v>
+        <v>490</v>
       </c>
       <c r="T94" s="2" t="str" cm="1">
         <f t="array" ref="T94">_xlfn.REGEXEXTRACT(A94,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>pervtube.net</v>
       </c>
     </row>
     <row r="95" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>240</v>
+        <v>37</v>
       </c>
       <c r="B95" s="2">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>281</v>
+        <v>392</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>241</v>
+        <v>402</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>242</v>
+        <v>408</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>44</v>
@@ -8327,25 +8407,25 @@
         <v>80</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>596</v>
+        <v>77</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>243</v>
+        <v>100</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>44</v>
+        <v>153</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>244</v>
+        <v>69</v>
       </c>
       <c r="O95" s="2" t="s">
         <v>154</v>
@@ -8357,49 +8437,49 @@
         <v>57</v>
       </c>
       <c r="R95" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S95" s="2" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="T95" s="2" t="str" cm="1">
         <f t="array" ref="T95">_xlfn.REGEXEXTRACT(A95,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>bdsmstreak.com</v>
       </c>
     </row>
     <row r="96" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B96" s="2">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>191</v>
+        <v>97</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>191</v>
+        <v>349</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>190</v>
+        <v>44</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>99</v>
+        <v>311</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>313</v>
+        <v>68</v>
       </c>
       <c r="J96" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="K96" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="K96" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="L96" s="2" t="s">
         <v>44</v>
@@ -8420,28 +8500,28 @@
         <v>57</v>
       </c>
       <c r="R96" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S96" s="2" t="s">
-        <v>314</v>
+        <v>506</v>
       </c>
       <c r="T96" s="2" t="str" cm="1">
         <f t="array" ref="T96">_xlfn.REGEXEXTRACT(A96,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>curebdsm.com</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>265</v>
+        <v>24</v>
       </c>
       <c r="B97" s="2">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>97</v>
+        <v>226</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>349</v>
+        <v>404</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>44</v>
@@ -8453,58 +8533,58 @@
         <v>81</v>
       </c>
       <c r="H97" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J97" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I97" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="J97" s="2" t="s">
-        <v>337</v>
-      </c>
       <c r="K97" s="2" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>519</v>
+        <v>107</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>44</v>
+        <v>435</v>
       </c>
       <c r="P97" s="2" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="Q97" s="2" t="s">
         <v>57</v>
       </c>
       <c r="R97" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S97" s="2" t="s">
-        <v>351</v>
+        <v>206</v>
       </c>
       <c r="T97" s="2" t="str" cm="1">
         <f t="array" ref="T97">_xlfn.REGEXEXTRACT(A97,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
+        <v>bdsmstreak.com</v>
       </c>
     </row>
     <row r="98" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>33</v>
+        <v>633</v>
       </c>
       <c r="B98" s="2">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>113</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>179</v>
+        <v>634</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>44</v>
@@ -8513,97 +8593,97 @@
         <v>44</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>68</v>
+        <v>520</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>429</v>
+        <v>635</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>430</v>
+        <v>636</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>431</v>
+        <v>66</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>342</v>
+        <v>114</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>335</v>
+        <v>637</v>
       </c>
       <c r="P98" s="2" t="s">
-        <v>430</v>
+        <v>638</v>
       </c>
       <c r="Q98" s="2" t="s">
         <v>57</v>
       </c>
       <c r="R98" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S98" s="2" t="s">
-        <v>428</v>
+        <v>639</v>
       </c>
       <c r="T98" s="2" t="str" cm="1">
         <f t="array" ref="T98">_xlfn.REGEXEXTRACT(A98,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="99" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+        <v>bdsmstreak.com</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="B99" s="2">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>464</v>
+        <v>233</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>465</v>
+        <v>44</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>466</v>
+        <v>235</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>468</v>
+        <v>238</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>469</v>
+        <v>239</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>441</v>
+        <v>44</v>
       </c>
       <c r="P99" s="2" t="s">
-        <v>161</v>
+        <v>44</v>
       </c>
       <c r="Q99" s="2" t="s">
         <v>57</v>
@@ -8612,61 +8692,61 @@
         <v>2</v>
       </c>
       <c r="S99" s="2" t="s">
-        <v>467</v>
+        <v>237</v>
       </c>
       <c r="T99" s="2" t="str" cm="1">
         <f t="array" ref="T99">_xlfn.REGEXEXTRACT(A99,"(?&lt;=//)[^/]+")</f>
-        <v>m.hqporner.com</v>
-      </c>
-    </row>
-    <row r="100" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>531</v>
+        <v>240</v>
       </c>
       <c r="B100" s="2">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>532</v>
+        <v>281</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>533</v>
+        <v>241</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>44</v>
+        <v>242</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>68</v>
+        <v>596</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>112</v>
+        <v>243</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>337</v>
+        <v>44</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>230</v>
+        <v>44</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>386</v>
+        <v>244</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>363</v>
+        <v>154</v>
       </c>
       <c r="P100" s="2" t="s">
-        <v>526</v>
+        <v>44</v>
       </c>
       <c r="Q100" s="2" t="s">
         <v>57</v>
@@ -8675,28 +8755,28 @@
         <v>2</v>
       </c>
       <c r="S100" s="2" t="s">
-        <v>534</v>
+        <v>245</v>
       </c>
       <c r="T100" s="2" t="str" cm="1">
         <f t="array" ref="T100">_xlfn.REGEXEXTRACT(A100,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>535</v>
+        <v>275</v>
       </c>
       <c r="B101" s="2">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>442</v>
+        <v>191</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>403</v>
+        <v>191</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>536</v>
+        <v>190</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>44</v>
@@ -8705,16 +8785,16 @@
         <v>82</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>426</v>
+        <v>99</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>95</v>
+        <v>313</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>311</v>
+        <v>100</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>228</v>
+        <v>44</v>
       </c>
       <c r="L101" s="2" t="s">
         <v>44</v>
@@ -8723,13 +8803,13 @@
         <v>44</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>537</v>
+        <v>154</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>342</v>
+        <v>44</v>
       </c>
       <c r="P101" s="2" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="Q101" s="2" t="s">
         <v>57</v>
@@ -8738,25 +8818,25 @@
         <v>2</v>
       </c>
       <c r="S101" s="2" t="s">
-        <v>538</v>
+        <v>314</v>
       </c>
       <c r="T101" s="2" t="str" cm="1">
         <f t="array" ref="T101">_xlfn.REGEXEXTRACT(A101,"(?&lt;=//)[^/]+")</f>
-        <v>www.omg.xxx</v>
-      </c>
-    </row>
-    <row r="102" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>578</v>
+        <v>265</v>
       </c>
       <c r="B102" s="2">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>579</v>
+        <v>97</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>580</v>
+        <v>349</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>44</v>
@@ -8765,34 +8845,34 @@
         <v>44</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>325</v>
+        <v>81</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>297</v>
+        <v>100</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>581</v>
+        <v>350</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>582</v>
+        <v>337</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>230</v>
+        <v>44</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>73</v>
+        <v>519</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>335</v>
+        <v>44</v>
       </c>
       <c r="P102" s="2" t="s">
-        <v>583</v>
+        <v>44</v>
       </c>
       <c r="Q102" s="2" t="s">
         <v>57</v>
@@ -8801,25 +8881,25 @@
         <v>2</v>
       </c>
       <c r="S102" s="2" t="s">
-        <v>584</v>
+        <v>351</v>
       </c>
       <c r="T102" s="2" t="str" cm="1">
         <f t="array" ref="T102">_xlfn.REGEXEXTRACT(A102,"(?&lt;=//)[^/]+")</f>
-        <v>www.peekvids.com</v>
+        <v>heavyfetish.com</v>
       </c>
     </row>
     <row r="103" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B103" s="2">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>301</v>
+        <v>113</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>44</v>
@@ -8828,64 +8908,64 @@
         <v>44</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>325</v>
+        <v>82</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>297</v>
+        <v>119</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>298</v>
+        <v>68</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>299</v>
+        <v>429</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>302</v>
+        <v>149</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>44</v>
+        <v>430</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>44</v>
+        <v>431</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>300</v>
+        <v>342</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>290</v>
+        <v>335</v>
       </c>
       <c r="P103" s="2" t="s">
-        <v>44</v>
+        <v>430</v>
       </c>
       <c r="Q103" s="2" t="s">
         <v>57</v>
       </c>
       <c r="R103" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S103" s="2" t="s">
-        <v>303</v>
+        <v>428</v>
       </c>
       <c r="T103" s="2" t="str" cm="1">
         <f t="array" ref="T103">_xlfn.REGEXEXTRACT(A103,"(?&lt;=//)[^/]+")</f>
-        <v>www.pornhub.com</v>
-      </c>
-    </row>
-    <row r="104" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>186</v>
+        <v>251</v>
       </c>
       <c r="B104" s="2">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>189</v>
+        <v>464</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>190</v>
+        <v>465</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>44</v>
@@ -8894,58 +8974,58 @@
         <v>82</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>160</v>
+        <v>228</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>193</v>
+        <v>466</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>44</v>
+        <v>468</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>44</v>
+        <v>469</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>192</v>
+        <v>92</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>44</v>
+        <v>441</v>
       </c>
       <c r="P104" s="2" t="s">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="Q104" s="2" t="s">
         <v>57</v>
       </c>
       <c r="R104" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S104" s="2" t="s">
-        <v>194</v>
+        <v>467</v>
       </c>
       <c r="T104" s="2" t="str" cm="1">
         <f t="array" ref="T104">_xlfn.REGEXEXTRACT(A104,"(?&lt;=//)[^/]+")</f>
-        <v>heavyfetish.com</v>
-      </c>
-    </row>
-    <row r="105" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+        <v>m.hqporner.com</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>247</v>
+        <v>531</v>
       </c>
       <c r="B105" s="2">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>191</v>
+        <v>532</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>191</v>
+        <v>533</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>44</v>
@@ -8954,46 +9034,361 @@
         <v>44</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>452</v>
+        <v>68</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>44</v>
+        <v>337</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>218</v>
+        <v>386</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>154</v>
+        <v>363</v>
       </c>
       <c r="P105" s="2" t="s">
-        <v>44</v>
+        <v>526</v>
       </c>
       <c r="Q105" s="2" t="s">
         <v>57</v>
       </c>
       <c r="R105" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S105" s="2" t="s">
-        <v>470</v>
+        <v>534</v>
       </c>
       <c r="T105" s="2" t="str" cm="1">
         <f t="array" ref="T105">_xlfn.REGEXEXTRACT(A105,"(?&lt;=//)[^/]+")</f>
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B106" s="2">
+        <v>57</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L106" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M106" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N106" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="O106" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="P106" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q106" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R106" s="3">
+        <v>2</v>
+      </c>
+      <c r="S106" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="T106" s="2" t="str" cm="1">
+        <f t="array" ref="T106">_xlfn.REGEXEXTRACT(A106,"(?&lt;=//)[^/]+")</f>
+        <v>www.omg.xxx</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B107" s="2">
+        <v>64</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L107" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M107" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N107" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O107" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="P107" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q107" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R107" s="3">
+        <v>2</v>
+      </c>
+      <c r="S107" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="T107" s="2" t="str" cm="1">
+        <f t="array" ref="T107">_xlfn.REGEXEXTRACT(A107,"(?&lt;=//)[^/]+")</f>
+        <v>www.peekvids.com</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108" s="2">
+        <v>11</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="L108" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M108" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N108" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="O108" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="P108" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q108" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R108" s="3">
+        <v>1</v>
+      </c>
+      <c r="S108" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="T108" s="2" t="str" cm="1">
+        <f t="array" ref="T108">_xlfn.REGEXEXTRACT(A108,"(?&lt;=//)[^/]+")</f>
+        <v>www.pornhub.com</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B109" s="2">
+        <v>34</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L109" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M109" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N109" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O109" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P109" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q109" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R109" s="3">
+        <v>1</v>
+      </c>
+      <c r="S109" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="T109" s="2" t="str" cm="1">
+        <f t="array" ref="T109">_xlfn.REGEXEXTRACT(A109,"(?&lt;=//)[^/]+")</f>
+        <v>heavyfetish.com</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B110" s="2">
+        <v>48</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L110" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M110" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N110" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="O110" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="P110" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q110" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R110" s="3">
+        <v>1</v>
+      </c>
+      <c r="S110" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="T110" s="2" t="str" cm="1">
+        <f t="array" ref="T110">_xlfn.REGEXEXTRACT(A110,"(?&lt;=//)[^/]+")</f>
         <v>heavyfetish.com</v>
       </c>
     </row>
@@ -9002,12 +9397,12 @@
     <sortCondition descending="1" ref="R1:R98"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:T105">
+  <conditionalFormatting sqref="A1:T110">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R105">
+  <conditionalFormatting sqref="R1:R110">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
